--- a/data-raw/model-runs/USREP-ReEDS additional Reporting Variables 8.13.xlsx
+++ b/data-raw/model-runs/USREP-ReEDS additional Reporting Variables 8.13.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbrownin\GitHub\BTR\data-raw\model-runs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A9AE466-DE96-406F-AB80-8CB697088109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34529C2D-FD65-4ACD-B94D-6CE61049A43C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7BA981C3-0E63-4417-BD30-5140A226A9C3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7BA981C3-0E63-4417-BD30-5140A226A9C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="14">
   <si>
     <t>USA</t>
   </si>
@@ -78,21 +81,6 @@
   </si>
   <si>
     <t>Energy Service|Transportation|Passenger|PHEV|Stock Share</t>
-  </si>
-  <si>
-    <t>Energy Service|Transportation|Freight|ICE|Sales Share</t>
-  </si>
-  <si>
-    <t>Energy Service|Transportation|Freight|BEV|Sales Share</t>
-  </si>
-  <si>
-    <t>Energy Service|Transportation|Passenger|ICE|Sales Share</t>
-  </si>
-  <si>
-    <t>Energy Service|Transportation|Passenger|BEV|Sales Share</t>
-  </si>
-  <si>
-    <t>Energy Service|Transportation|Passenger|PHEV|Sales Share</t>
   </si>
 </sst>
 </file>
@@ -460,23 +448,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C4ADB3F-593A-4FDA-AF23-4472D45CDBBE}">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="51.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="56.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="5.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -508,7 +496,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -519,28 +507,28 @@
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" s="4">
-        <v>0.96</v>
+        <v>0.04</v>
       </c>
       <c r="I2" s="4">
-        <v>0.9</v>
+        <v>0.1</v>
       </c>
       <c r="J2" s="4">
-        <v>0.89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -551,28 +539,28 @@
         <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="F3" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" s="4">
-        <v>0.04</v>
+        <v>0.96</v>
       </c>
       <c r="I3" s="4">
-        <v>0.1</v>
+        <v>0.9</v>
       </c>
       <c r="J3" s="4">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -583,28 +571,28 @@
         <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>1</v>
       </c>
       <c r="F4" s="4">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="G4" s="4">
-        <v>0.99</v>
+        <v>0.06</v>
       </c>
       <c r="H4" s="4">
-        <v>0.84</v>
+        <v>0.22</v>
       </c>
       <c r="I4" s="4">
-        <v>0.77</v>
+        <v>0.45</v>
       </c>
       <c r="J4" s="4">
-        <v>0.89</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -615,28 +603,28 @@
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>1</v>
       </c>
       <c r="F5" s="4">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="G5" s="4">
-        <v>0.01</v>
+        <v>0.93</v>
       </c>
       <c r="H5" s="4">
-        <v>0.16</v>
+        <v>0.77</v>
       </c>
       <c r="I5" s="4">
-        <v>0.23</v>
+        <v>0.54</v>
       </c>
       <c r="J5" s="4">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -647,212 +635,57 @@
         <v>0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>1</v>
       </c>
       <c r="F6" s="4">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="G6" s="4">
-        <v>0.93</v>
+        <v>0.01</v>
       </c>
       <c r="H6" s="4">
-        <v>0.77</v>
+        <v>0.01</v>
       </c>
       <c r="I6" s="4">
-        <v>0.54</v>
+        <v>0.01</v>
       </c>
       <c r="J6" s="4">
-        <v>0.43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="4">
         <v>0.01</v>
       </c>
-      <c r="G7" s="4">
-        <v>0.06</v>
-      </c>
-      <c r="H7" s="4">
-        <v>0.22</v>
-      </c>
-      <c r="I7" s="4">
-        <v>0.45</v>
-      </c>
-      <c r="J7" s="4">
-        <v>0.56000000000000005</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8" s="4">
-        <v>0</v>
-      </c>
-      <c r="G8" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="H8" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="I8" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="J8" s="4">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" s="4">
-        <v>0.96</v>
-      </c>
-      <c r="G9" s="4">
-        <v>0.83</v>
-      </c>
-      <c r="H9" s="4">
-        <v>0.63</v>
-      </c>
-      <c r="I9" s="4">
-        <v>0.22</v>
-      </c>
-      <c r="J9" s="4">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F10" s="4">
-        <v>0.04</v>
-      </c>
-      <c r="G10" s="4">
-        <v>0.16</v>
-      </c>
-      <c r="H10" s="4">
-        <v>0.35</v>
-      </c>
-      <c r="I10" s="4">
-        <v>0.76</v>
-      </c>
-      <c r="J10" s="4">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F11" s="4">
-        <v>0</v>
-      </c>
-      <c r="G11" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="H11" s="4">
-        <v>0.02</v>
-      </c>
-      <c r="I11" s="4">
-        <v>0.02</v>
-      </c>
-      <c r="J11" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D10" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D15" s="1"/>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D22" s="1"/>
-    </row>
   </sheetData>
+  <autoFilter ref="A1:J1" xr:uid="{3C4ADB3F-593A-4FDA-AF23-4472D45CDBBE}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J11">
+      <sortCondition ref="D1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data-raw/model-runs/USREP-ReEDS additional Reporting Variables 8.13.xlsx
+++ b/data-raw/model-runs/USREP-ReEDS additional Reporting Variables 8.13.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbrownin\GitHub\BTR\data-raw\model-runs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34529C2D-FD65-4ACD-B94D-6CE61049A43C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8DCFF6C-A464-4F3C-AB60-EF5E214BC6E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7BA981C3-0E63-4417-BD30-5140A226A9C3}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="16">
   <si>
     <t>USA</t>
   </si>
@@ -81,6 +81,12 @@
   </si>
   <si>
     <t>Energy Service|Transportation|Passenger|PHEV|Stock Share</t>
+  </si>
+  <si>
+    <t>Energy Service|Transportation|Freight|BEV|Sales Share</t>
+  </si>
+  <si>
+    <t>Energy Service|Transportation|Freight|ICE|Sales Share</t>
   </si>
 </sst>
 </file>
@@ -451,7 +457,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -656,8 +662,69 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D9" s="1"/>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.77</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0.23</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D10" s="1"/>

--- a/data-raw/model-runs/USREP-ReEDS additional Reporting Variables 8.13.xlsx
+++ b/data-raw/model-runs/USREP-ReEDS additional Reporting Variables 8.13.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbrownin\GitHub\BTR\data-raw\model-runs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8DCFF6C-A464-4F3C-AB60-EF5E214BC6E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA375C4C-DEBB-4BEB-9BEC-AE6CDE1017C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7BA981C3-0E63-4417-BD30-5140A226A9C3}"/>
+    <workbookView xWindow="11640" yWindow="0" windowWidth="17265" windowHeight="15585" xr2:uid="{7BA981C3-0E63-4417-BD30-5140A226A9C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
   <si>
     <t>USA</t>
   </si>
@@ -72,15 +72,6 @@
   </si>
   <si>
     <t>Energy Service|Transportation|Freight|ICE|Stock Share</t>
-  </si>
-  <si>
-    <t>Energy Service|Transportation|Passenger|BEV|Stock Share</t>
-  </si>
-  <si>
-    <t>Energy Service|Transportation|Passenger|ICE|Stock Share</t>
-  </si>
-  <si>
-    <t>Energy Service|Transportation|Passenger|PHEV|Stock Share</t>
   </si>
   <si>
     <t>Energy Service|Transportation|Freight|BEV|Sales Share</t>
@@ -454,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C4ADB3F-593A-4FDA-AF23-4472D45CDBBE}">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -513,24 +504,24 @@
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="1">
         <v>0</v>
       </c>
-      <c r="G2" s="4">
-        <v>0</v>
-      </c>
-      <c r="H2" s="4">
-        <v>0.04</v>
-      </c>
-      <c r="I2" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="J2" s="4">
+      <c r="G2" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0.23</v>
+      </c>
+      <c r="J2" s="1">
         <v>0.11</v>
       </c>
     </row>
@@ -545,25 +536,25 @@
         <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="F3" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" s="4">
-        <v>0.96</v>
+        <v>0.04</v>
       </c>
       <c r="I3" s="4">
-        <v>0.9</v>
+        <v>0.1</v>
       </c>
       <c r="J3" s="4">
-        <v>0.89</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -577,25 +568,25 @@
         <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="G4" s="4">
-        <v>0.06</v>
-      </c>
-      <c r="H4" s="4">
-        <v>0.22</v>
-      </c>
-      <c r="I4" s="4">
-        <v>0.45</v>
-      </c>
-      <c r="J4" s="4">
-        <v>0.56000000000000005</v>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.77</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.89</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -609,126 +600,39 @@
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>1</v>
       </c>
       <c r="F5" s="4">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G5" s="4">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="H5" s="4">
-        <v>0.77</v>
+        <v>0.96</v>
       </c>
       <c r="I5" s="4">
-        <v>0.54</v>
+        <v>0.9</v>
       </c>
       <c r="J5" s="4">
-        <v>0.43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" s="4">
-        <v>0</v>
-      </c>
-      <c r="G6" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="H6" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="I6" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="J6" s="4">
-        <v>0.01</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0.99</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0.84</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0.77</v>
-      </c>
-      <c r="J7" s="1">
-        <v>0.89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0.23</v>
-      </c>
-      <c r="J8" s="1">
-        <v>0.11</v>
-      </c>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D10" s="1"/>
     </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D11" s="1"/>
+    </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D12" s="1"/>
     </row>
@@ -738,18 +642,9 @@
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D17" s="1"/>
-    </row>
   </sheetData>
   <autoFilter ref="A1:J1" xr:uid="{3C4ADB3F-593A-4FDA-AF23-4472D45CDBBE}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J11">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J8">
       <sortCondition ref="D1"/>
     </sortState>
   </autoFilter>
